--- a/3_Analysis/table4_COPR_at_00s80s.xlsx
+++ b/3_Analysis/table4_COPR_at_00s80s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boterolab1/Box Sync/CB_VF_Shared/Wet_Lab/Projects/FS/FS_Analysis/3_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8214A736-41EB-284C-BEBF-4498FCC1C159}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B639CF5D-A866-A949-8A85-AB373CB79BAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7160" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{73438E35-0FAA-3D4B-B467-4F3E90772C6C}"/>
+    <workbookView xWindow="25940" yWindow="-320" windowWidth="25440" windowHeight="15000" xr2:uid="{40DC65B0-A4FC-424B-A427-E3DF1D45A995}"/>
   </bookViews>
   <sheets>
     <sheet name="table4_COPR_at_00s80s_inc_raw" sheetId="2" r:id="rId1"/>
@@ -437,7 +437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBA3B5E-C340-C241-9CC8-6D8E6E0442C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A71056-0B0C-ED44-A383-422A9F31C96C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -576,13 +576,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -594,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -602,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -620,7 +620,7 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB66EB3-EC68-E049-98DA-E13058DBAE7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFAD3F8-4195-2F42-AF65-A36968C6D78D}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -664,13 +664,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.156</v>
+        <v>0.312</v>
       </c>
       <c r="C2">
         <v>0.125</v>
       </c>
       <c r="D2">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E2">
         <v>0.46899999999999997</v>
@@ -682,7 +682,7 @@
         <v>0.188</v>
       </c>
       <c r="H2">
-        <v>0.188</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -690,13 +690,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="C3">
         <v>0.312</v>
       </c>
       <c r="D3">
-        <v>0.156</v>
+        <v>0.312</v>
       </c>
       <c r="E3">
         <v>0.188</v>
@@ -734,7 +734,7 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="H4">
-        <v>0.156</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -742,13 +742,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C5">
         <v>0.188</v>
       </c>
       <c r="D5">
-        <v>6.2E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E5">
         <v>0.125</v>
@@ -768,13 +768,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.68799999999999994</v>
+        <v>0.375</v>
       </c>
       <c r="C6">
         <v>0.375</v>
       </c>
       <c r="D6">
-        <v>0.65600000000000003</v>
+        <v>0.312</v>
       </c>
       <c r="E6">
         <v>0.188</v>
@@ -786,7 +786,7 @@
         <v>0.25</v>
       </c>
       <c r="H6">
-        <v>0.65600000000000003</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -812,7 +812,7 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D4D2E-F2B2-DC45-8BD5-084763EAFA50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8779C-F6D3-6447-B94E-A827791A2767}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -960,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -978,7 +978,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -1004,7 +1004,7 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DF92EC-E681-294E-A26A-9A434C5140FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347338F8-FF02-AD44-809D-FC18F0DD89AB}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1152,13 +1152,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1170,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -1196,7 +1196,7 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943DFFBC-41E9-5442-8887-7AE9951ED80D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CBD8B5-6A09-E54C-B215-FEA9E56B443E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1284,7 +1284,7 @@
         <v>0.219</v>
       </c>
       <c r="H3">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,13 +1318,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.312</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
         <v>0.625</v>
       </c>
       <c r="D5">
-        <v>0.34399999999999997</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E5">
         <v>0.81200000000000006</v>
@@ -1336,7 +1336,7 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="H5">
-        <v>0.312</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.68799999999999994</v>
+        <v>0.375</v>
       </c>
       <c r="C6">
         <v>0.375</v>
       </c>
       <c r="D6">
-        <v>0.65600000000000003</v>
+        <v>0.312</v>
       </c>
       <c r="E6">
         <v>0.188</v>
@@ -1362,7 +1362,7 @@
         <v>0.25</v>
       </c>
       <c r="H6">
-        <v>0.65600000000000003</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -1388,7 +1388,7 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B95BC3D-09F3-164D-9CE8-72DAA3E595C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB8D68-86BB-DD4E-88E1-9A9D4278F7AD}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1536,13 +1536,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1554,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="H6">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1562,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>32</v>
@@ -1580,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
